--- a/events.xlsx
+++ b/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thebma.sharepoint.com/sites/Comm-UKRDC2025-2026/Shared Documents/Dec-Jan 2026 Reballot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick_\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4725501-3734-4792-8F45-B36B54AA18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A6DCF-E605-4D15-9600-B6DEB61B00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" firstSheet="1" activeTab="9" xr2:uid="{709D1973-80B0-EA43-9C5E-E79AD622B9EB}"/>
+    <workbookView xWindow="5925" yWindow="4860" windowWidth="21600" windowHeight="11295" tabRatio="880" firstSheet="1" activeTab="8" xr2:uid="{709D1973-80B0-EA43-9C5E-E79AD622B9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Northern" sheetId="1" r:id="rId1"/>
@@ -674,9 +674,6 @@
     <t>16/12/25</t>
   </si>
   <si>
-    <t>Royal London</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>Derriford Hospital</t>
+  </si>
+  <si>
+    <t>Royal London hospital Whitechapel</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2046,7 +2046,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2389,7 +2389,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -2399,7 +2399,7 @@
     <col min="6" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46031</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46031</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>46035</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46035</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46038</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46051</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46036</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46037</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16.010000000000002</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46041</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46039</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46029</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46030</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46030</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46041</v>
       </c>
@@ -2697,55 +2697,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
   </sheetData>
@@ -2765,11 +2765,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -2779,9 +2779,9 @@
     <col min="6" max="6" width="98.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2789,7 +2789,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2809,27 +2809,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46038</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1">
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>46038</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="15">
         <v>0.52083333333333337</v>
@@ -2838,715 +2838,715 @@
         <v>14</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46042</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46024</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46031</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46024</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46034</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
         <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46028</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46385</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46385</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46027</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
         <v>220</v>
       </c>
-      <c r="F13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46386</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46386</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46024</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46031</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46029</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46387</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>46365</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46368</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>46034</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46387</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46035</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46375</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46375</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>46029</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>46035</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" t="s">
         <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>46041</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
         <v>126</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>46037</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" t="s">
         <v>246</v>
       </c>
-      <c r="F30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46038</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s">
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46036</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>46035</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" t="s">
         <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>46035</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>46029</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" t="s">
         <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>46387</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>46043</v>
       </c>
       <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" t="s">
         <v>259</v>
       </c>
-      <c r="D37" t="s">
-        <v>260</v>
-      </c>
       <c r="F37" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46043</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>46038</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>46042</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
         <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>46045</v>
       </c>
       <c r="B41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
         <v>73</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>46027</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>46030</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>46041</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>46041</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>46043</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46045</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46041</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46042</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>46043</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>277</v>
-      </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
         <v>126</v>
       </c>
       <c r="F51" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="B52" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>280</v>
       </c>
       <c r="D52" t="s">
         <v>126</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3571,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -3581,9 +3581,9 @@
     <col min="6" max="6" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3591,7 +3591,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3611,139 +3611,139 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46037</v>
       </c>
       <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
         <v>283</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>284</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46037</v>
       </c>
       <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>288</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="F4" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46038</v>
       </c>
       <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46041</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46041</v>
       </c>
       <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" t="s">
         <v>288</v>
       </c>
-      <c r="D7" t="s">
-        <v>289</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>46042</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46044</v>
       </c>
       <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
         <v>300</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46045</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>107</v>
@@ -3752,115 +3752,115 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46048</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" t="s">
         <v>306</v>
       </c>
-      <c r="F11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
   </sheetData>
@@ -3889,7 +3889,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -3899,9 +3899,9 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3909,7 +3909,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3929,12 +3929,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46037</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>116</v>
@@ -3943,230 +3943,230 @@
         <v>14</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46369</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
         <v>311</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>312</v>
       </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46372</v>
       </c>
       <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46386</v>
       </c>
       <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" t="s">
         <v>318</v>
       </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46352</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46036</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46042</v>
       </c>
       <c r="B9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46038</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="3"/>
       <c r="F10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46034</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46036</v>
       </c>
       <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" t="s">
-        <v>331</v>
-      </c>
-      <c r="F12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -4190,7 +4190,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -4200,9 +4200,9 @@
     <col min="6" max="6" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -4210,7 +4210,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4230,12 +4230,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46048</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>116</v>
@@ -4244,107 +4244,107 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -4368,7 +4368,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -4378,7 +4378,7 @@
     <col min="6" max="6" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46034</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46034</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46037</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46041</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46041</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46041</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46043</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46044</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46044</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46045</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46046</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46050</v>
       </c>
@@ -4612,76 +4612,76 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
     </row>
   </sheetData>
@@ -4705,7 +4705,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -4715,7 +4715,7 @@
     <col min="6" max="6" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>70</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1">
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -4929,85 +4929,85 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
   </sheetData>
@@ -5031,7 +5031,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -5041,7 +5041,7 @@
     <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>103</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46041</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>46041</v>
       </c>
@@ -5105,103 +5105,103 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -5225,7 +5225,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -5235,7 +5235,7 @@
     <col min="6" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>108</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46043</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46035</v>
       </c>
@@ -5299,103 +5299,103 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -5419,7 +5419,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -5429,7 +5429,7 @@
     <col min="6" max="6" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>114</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46049</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46035</v>
       </c>
@@ -5493,103 +5493,103 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -5613,7 +5613,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -5623,7 +5623,7 @@
     <col min="6" max="6" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>119</v>
       </c>
@@ -5633,7 +5633,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>46044</v>
       </c>
@@ -5670,107 +5670,107 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
   </sheetData>
@@ -5794,7 +5794,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -5804,7 +5804,7 @@
     <col min="6" max="6" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>122</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46029</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46031</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46037</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46037</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46045</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="16" customFormat="1">
+    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>46045</v>
       </c>
@@ -5954,107 +5954,107 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
   </sheetData>
@@ -6082,11 +6082,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -6096,7 +6096,7 @@
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>136</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>46003</v>
       </c>
@@ -6142,12 +6142,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="8" t="s">
@@ -6155,15 +6155,15 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
@@ -6171,15 +6171,15 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
+      <c r="B6" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>146</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="8" t="s">
@@ -6187,15 +6187,15 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>148</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="8" t="s">
@@ -6203,15 +6203,15 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>150</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="8" t="s">
@@ -6219,15 +6219,15 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="8" t="s">
@@ -6235,15 +6235,15 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>46027</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8" t="s">
@@ -6251,47 +6251,47 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>46029</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>46029</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>46030</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8" t="s">
@@ -6299,15 +6299,15 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>46031</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="8" t="s">
@@ -6315,49 +6315,49 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>46036</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>46034</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>46368</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8" t="s">
@@ -6365,47 +6365,47 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
+      <c r="B18" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>172</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>173</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="6" t="s">
@@ -6413,95 +6413,95 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="27" t="s">
+      <c r="B21" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>46038</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="8" t="s">
@@ -6509,15 +6509,15 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>187</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="8" t="s">
@@ -6525,15 +6525,15 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="8" t="s">
@@ -6541,15 +6541,15 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="27" t="s">
+      <c r="B29" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="8" t="s">
@@ -6557,15 +6557,15 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="8" t="s">
@@ -6573,15 +6573,15 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="8" t="s">
@@ -6589,15 +6589,15 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>46051</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="18">
         <v>0.54166666666666663</v>
@@ -6607,31 +6607,31 @@
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="8" t="s">
@@ -6639,35 +6639,30 @@
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B27:C27"/>
@@ -6676,6 +6671,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6687,6 +6687,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052EB98AD4D5D474D82779C5BE535B1A3" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55c1955eab7743f72289b61ec94a9e09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a05c322-cf71-4632-98a3-b62283b41745" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a76109daf5c70364d361c7fff3416ea" ns2:_="">
     <xsd:import namespace="1a05c322-cf71-4632-98a3-b62283b41745"/>
@@ -6824,31 +6839,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F6FA1E-A0BB-4829-84D8-DAAAB61D7DDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82E667A5-F8E8-4ADE-88D1-F2868CCC26AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EB5BC6-C331-4684-BC41-615E51D7F1FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EB5BC6-C331-4684-BC41-615E51D7F1FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82E667A5-F8E8-4ADE-88D1-F2868CCC26AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F6FA1E-A0BB-4829-84D8-DAAAB61D7DDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a05c322-cf71-4632-98a3-b62283b41745"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
